--- a/app/config/tables/geographic_regions/forms/geographic_regions/geographic_regions.xlsx
+++ b/app/config/tables/geographic_regions/forms/geographic_regions/geographic_regions.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
   <si>
     <t>comments</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Ingrese el grupo privilegiado:</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
 </sst>
 </file>
@@ -888,7 +891,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1080,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>60</v>

--- a/app/config/tables/geographic_regions/forms/geographic_regions/geographic_regions.xlsx
+++ b/app/config/tables/geographic_regions/forms/geographic_regions/geographic_regions.xlsx
@@ -13,9 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="properties" sheetId="3" r:id="rId3"/>
-    <sheet name="settings" sheetId="4" r:id="rId4"/>
+    <sheet name="calculates" sheetId="6" r:id="rId2"/>
+    <sheet name="model" sheetId="5" r:id="rId3"/>
+    <sheet name="choices" sheetId="2" r:id="rId4"/>
+    <sheet name="properties" sheetId="3" r:id="rId5"/>
+    <sheet name="settings" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
   <si>
     <t>comments</t>
   </si>
@@ -357,13 +359,54 @@
   </si>
   <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>begin screen</t>
+  </si>
+  <si>
+    <t>end screen</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>regionName</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>calculation_name</t>
+  </si>
+  <si>
+    <t>getDisplayName</t>
+  </si>
+  <si>
+    <t>calculates.getDisplayName()</t>
+  </si>
+  <si>
+    <t>(function() {
+  var name = '';
+  var maxLevel = 5;
+  for (var i = 1; i &lt;= maxLevel; i++) {
+    var regionData = 'regionLevel' + i;
+    if (data(regionData) !== null &amp;&amp; data(regionData) !== undefined) {
+      name += data(regionData);
+   if (i &lt; maxLevel) { name += '/'; }
+    }
+  } 
+  return name;
+})()</t>
+  </si>
+  <si>
+    <t>instance_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -413,6 +456,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -443,7 +498,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -478,6 +533,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -888,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -907,10 +967,11 @@
     <col min="10" max="10" width="35" customWidth="1"/>
     <col min="11" max="11" width="19.625" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="1025" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="20.875" customWidth="1"/>
+    <col min="14" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -950,34 +1011,27 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -985,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" t="s">
-        <v>56</v>
+      <c r="F3" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1012,24 +1066,24 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1037,149 +1091,220 @@
         <v>13</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>58</v>
+      <c r="F5" t="s">
+        <v>57</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="5" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>89</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1194,6 +1319,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="31.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK18"/>
   <sheetViews>
@@ -1288,7 +1483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1465,12 +1660,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1566,6 +1761,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/app/config/tables/geographic_regions/forms/geographic_regions/geographic_regions.xlsx
+++ b/app/config/tables/geographic_regions/forms/geographic_regions/geographic_regions.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26385" windowHeight="13935" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26390" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="calculates" sheetId="6" r:id="rId2"/>
-    <sheet name="model" sheetId="5" r:id="rId3"/>
-    <sheet name="choices" sheetId="2" r:id="rId4"/>
-    <sheet name="properties" sheetId="3" r:id="rId5"/>
-    <sheet name="settings" sheetId="4" r:id="rId6"/>
+    <sheet name="initial" sheetId="7" r:id="rId1"/>
+    <sheet name="survey" sheetId="1" r:id="rId2"/>
+    <sheet name="calculates" sheetId="6" r:id="rId3"/>
+    <sheet name="model" sheetId="5" r:id="rId4"/>
+    <sheet name="choices" sheetId="2" r:id="rId5"/>
+    <sheet name="properties" sheetId="3" r:id="rId6"/>
+    <sheet name="settings" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="123">
   <si>
     <t>comments</t>
   </si>
@@ -400,6 +401,18 @@
   </si>
   <si>
     <t>instance_name</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
   </si>
 </sst>
 </file>
@@ -948,30 +961,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="22.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="22.58203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="22.58203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="23.375" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="27.375" customWidth="1"/>
+    <col min="6" max="6" width="23.08203125" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
     <col min="10" max="10" width="35" customWidth="1"/>
-    <col min="11" max="11" width="19.625" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="19.58203125" customWidth="1"/>
+    <col min="12" max="12" width="14.58203125" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" customWidth="1"/>
     <col min="14" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1080,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>109</v>
@@ -1031,7 +1096,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1057,7 +1122,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1083,7 +1148,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1109,7 +1174,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1135,7 +1200,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1158,7 +1223,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D8" s="5" t="s">
         <v>108</v>
       </c>
@@ -1180,7 +1245,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>110</v>
       </c>
@@ -1192,7 +1257,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>109</v>
       </c>
@@ -1204,7 +1269,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D11" s="5" t="s">
         <v>111</v>
       </c>
@@ -1220,7 +1285,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D12" s="5" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +1307,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1262,7 +1327,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1282,7 +1347,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1302,7 +1367,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>110</v>
       </c>
@@ -1318,7 +1383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1326,13 +1391,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="2" max="2" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>114</v>
       </c>
@@ -1340,7 +1405,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -1353,7 +1418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1361,13 +1426,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="17.58203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1375,7 +1440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1388,7 +1453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK18"/>
   <sheetViews>
@@ -1396,15 +1461,15 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.08203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="10" customWidth="1"/>
-    <col min="4" max="1025" width="17.125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.58203125" style="10" customWidth="1"/>
+    <col min="4" max="1025" width="17.08203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
@@ -1418,237 +1483,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
     </row>
-    <row r="11" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="19" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1662,20 +1550,197 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1025" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1695,7 +1760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1703,7 +1768,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1714,7 +1779,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1722,7 +1787,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>47</v>
       </c>
@@ -1731,7 +1796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
@@ -1739,7 +1804,7 @@
         <v>20190919</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1750,7 +1815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1761,7 +1826,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>118</v>
       </c>

--- a/app/config/tables/geographic_regions/forms/geographic_regions/geographic_regions.xlsx
+++ b/app/config/tables/geographic_regions/forms/geographic_regions/geographic_regions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26390" windowHeight="13940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26390" windowHeight="13940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -386,6 +386,21 @@
     <t>calculates.getDisplayName()</t>
   </si>
   <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>display.text</t>
+  </si>
+  <si>
+    <t>do section survey</t>
+  </si>
+  <si>
+    <t>goto _finalize</t>
+  </si>
+  <si>
+    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
     <t>(function() {
   var name = '';
   var maxLevel = 5;
@@ -396,23 +411,9 @@
    if (i &lt; maxLevel) { name += '/'; }
     }
   } 
+  if (name.length &gt; 0 &amp;&amp; name.charAt(name.length - 1) === '/') {name = name.substr(0, name.length - 1)}
   return name;
 })()</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>display.text</t>
-  </si>
-  <si>
-    <t>do section survey</t>
-  </si>
-  <si>
-    <t>goto _finalize</t>
-  </si>
-  <si>
-    <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
   </si>
 </sst>
 </file>
@@ -963,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -982,7 +983,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>0</v>
@@ -990,19 +991,19 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1387,14 +1388,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.75" customWidth="1"/>
+    <col min="2" max="2" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1405,12 +1406,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="201.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="217" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1829,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>112</v>
